--- a/differences_3_0.95.xlsx
+++ b/differences_3_0.95.xlsx
@@ -1191,7 +1191,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>58429.89999999999</v>
+        <v>58429</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1613,7 +1613,7 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1835,7 +1835,7 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>18.7</v>
+        <v>18</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -1987,7 +1987,7 @@
         <v>1</v>
       </c>
       <c r="U20" t="n">
-        <v>18.7</v>
+        <v>18</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2063,7 +2063,7 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>18.7</v>
+        <v>18</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -2139,7 +2139,7 @@
         <v>3</v>
       </c>
       <c r="U22" t="n">
-        <v>18.7</v>
+        <v>18</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2519,7 +2519,7 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>8.700000000000003</v>
+        <v>8</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.7</v>
+        <v>28</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2595,7 +2595,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>28.7</v>
+        <v>28</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2635,7 +2635,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>64343.60000000001</v>
+        <v>64343</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2680,7 +2680,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0.1000000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2939,7 +2939,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>86591.10000000001</v>
+        <v>86591</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3094,7 +3094,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>33182.5</v>
+        <v>33182</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3167,13 +3167,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>58672.79999999999</v>
+        <v>58672</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>58672.79999999999</v>
+        <v>58672</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -3206,13 +3206,13 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0.1000000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>17304.89999999999</v>
+        <v>17304</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -3650,7 +3650,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -3665,10 +3665,10 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>0.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0.1000000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3702,7 +3702,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>56986.5</v>
+        <v>56986</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3857,7 +3857,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>11817.89999999999</v>
+        <v>11817</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>-60.89999999999418</v>
       </c>
       <c r="N45" t="n">
-        <v>11817.89999999999</v>
+        <v>11817</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -3896,7 +3896,7 @@
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>0.1000000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -3936,7 +3936,7 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>37873.89999999999</v>
+        <v>37873</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>26.5</v>
+        <v>26</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -3969,10 +3969,10 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0.1000000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="W47" t="n">
-        <v>0.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="X47" t="n">
         <v>0</v>
@@ -4085,7 +4085,7 @@
         <v>0</v>
       </c>
       <c r="K48" t="n">
-        <v>-4662.100000000006</v>
+        <v>-4663</v>
       </c>
       <c r="L48" t="n">
         <v>0</v>
@@ -4094,7 +4094,7 @@
         <v>21276.10000000001</v>
       </c>
       <c r="N48" t="n">
-        <v>18886.89999999999</v>
+        <v>18886</v>
       </c>
       <c r="O48" t="n">
         <v>0</v>
@@ -4124,7 +4124,7 @@
         <v>0</v>
       </c>
       <c r="X48" t="n">
-        <v>0.1000000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -4155,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>26788.60000000001</v>
+        <v>26788</v>
       </c>
       <c r="J49" t="n">
         <v>0</v>
@@ -4164,7 +4164,7 @@
         <v>0</v>
       </c>
       <c r="L49" t="n">
-        <v>27036.29999999999</v>
+        <v>27036</v>
       </c>
       <c r="M49" t="n">
         <v>0</v>
@@ -4194,7 +4194,7 @@
         <v>0</v>
       </c>
       <c r="V49" t="n">
-        <v>3.9</v>
+        <v>3</v>
       </c>
       <c r="W49" t="n">
         <v>0</v>
@@ -4310,7 +4310,7 @@
         <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>44170.60000000001</v>
+        <v>44170</v>
       </c>
       <c r="K51" t="n">
         <v>0</v>
@@ -4331,10 +4331,10 @@
         <v>2</v>
       </c>
       <c r="Q51" t="n">
-        <v>-1.299999999999997</v>
+        <v>-2</v>
       </c>
       <c r="R51" t="n">
-        <v>8.700000000000003</v>
+        <v>8</v>
       </c>
       <c r="S51" t="n">
         <v>0</v>
@@ -4343,7 +4343,7 @@
         <v>1</v>
       </c>
       <c r="U51" t="n">
-        <v>18.7</v>
+        <v>18</v>
       </c>
       <c r="V51" t="n">
         <v>0</v>
@@ -4386,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>84326.29999999999</v>
+        <v>84326</v>
       </c>
       <c r="K52" t="n">
         <v>0</v>
@@ -4419,7 +4419,7 @@
         <v>0</v>
       </c>
       <c r="U52" t="n">
-        <v>19.59999999999999</v>
+        <v>19</v>
       </c>
       <c r="V52" t="n">
         <v>1</v>
@@ -4428,7 +4428,7 @@
         <v>0</v>
       </c>
       <c r="X52" t="n">
-        <v>0.1000000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -4462,7 +4462,7 @@
         <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>21562.29999999999</v>
+        <v>21562</v>
       </c>
       <c r="K53" t="n">
         <v>0</v>
@@ -4495,7 +4495,7 @@
         <v>0</v>
       </c>
       <c r="U53" t="n">
-        <v>9.599999999999994</v>
+        <v>9</v>
       </c>
       <c r="V53" t="n">
         <v>4</v>
@@ -4504,7 +4504,7 @@
         <v>0</v>
       </c>
       <c r="X53" t="n">
-        <v>0.1000000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -4544,7 +4544,7 @@
         <v>0</v>
       </c>
       <c r="L54" t="n">
-        <v>43375.89999999999</v>
+        <v>43375</v>
       </c>
       <c r="M54" t="n">
         <v>0</v>
@@ -4562,7 +4562,7 @@
         <v>0</v>
       </c>
       <c r="R54" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="S54" t="n">
         <v>0</v>
@@ -4577,10 +4577,10 @@
         <v>0</v>
       </c>
       <c r="W54" t="n">
-        <v>0.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="X54" t="n">
-        <v>0.1000000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -4620,7 +4620,7 @@
         <v>0</v>
       </c>
       <c r="L55" t="n">
-        <v>29318.89999999999</v>
+        <v>29318</v>
       </c>
       <c r="M55" t="n">
         <v>0</v>
@@ -4638,7 +4638,7 @@
         <v>0</v>
       </c>
       <c r="R55" t="n">
-        <v>26.5</v>
+        <v>26</v>
       </c>
       <c r="S55" t="n">
         <v>0</v>
@@ -4653,10 +4653,10 @@
         <v>0</v>
       </c>
       <c r="W55" t="n">
-        <v>0.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="X55" t="n">
-        <v>0.1000000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -4881,7 +4881,7 @@
         <v>0</v>
       </c>
       <c r="W58" t="n">
-        <v>0.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="X58" t="n">
         <v>0</v>
@@ -4918,7 +4918,7 @@
         <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>49506.60000000001</v>
+        <v>49506</v>
       </c>
       <c r="K59" t="n">
         <v>0</v>
@@ -4939,10 +4939,10 @@
         <v>2</v>
       </c>
       <c r="Q59" t="n">
-        <v>18.7</v>
+        <v>18</v>
       </c>
       <c r="R59" t="n">
-        <v>28.7</v>
+        <v>28</v>
       </c>
       <c r="S59" t="n">
         <v>0</v>
@@ -4951,7 +4951,7 @@
         <v>1</v>
       </c>
       <c r="U59" t="n">
-        <v>28.7</v>
+        <v>28</v>
       </c>
       <c r="V59" t="n">
         <v>0</v>
@@ -5070,7 +5070,7 @@
         <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>-1998.399999999994</v>
+        <v>-1999</v>
       </c>
       <c r="K61" t="n">
         <v>0</v>
@@ -5091,10 +5091,10 @@
         <v>1</v>
       </c>
       <c r="Q61" t="n">
-        <v>18.7</v>
+        <v>18</v>
       </c>
       <c r="R61" t="n">
-        <v>18.7</v>
+        <v>18</v>
       </c>
       <c r="S61" t="n">
         <v>0</v>
@@ -5103,7 +5103,7 @@
         <v>2</v>
       </c>
       <c r="U61" t="n">
-        <v>18.7</v>
+        <v>18</v>
       </c>
       <c r="V61" t="n">
         <v>0</v>
@@ -5185,7 +5185,7 @@
         <v>0</v>
       </c>
       <c r="W62" t="n">
-        <v>0.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="X62" t="n">
         <v>0</v>
@@ -5228,7 +5228,7 @@
         <v>0</v>
       </c>
       <c r="L63" t="n">
-        <v>6189.899999999994</v>
+        <v>6189</v>
       </c>
       <c r="M63" t="n">
         <v>0</v>
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="R63" t="n">
-        <v>26.5</v>
+        <v>26</v>
       </c>
       <c r="S63" t="n">
         <v>0</v>
@@ -5261,10 +5261,10 @@
         <v>0</v>
       </c>
       <c r="W63" t="n">
-        <v>0.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="X63" t="n">
-        <v>0.1000000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -5298,7 +5298,7 @@
         <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>13259.60000000001</v>
+        <v>13259</v>
       </c>
       <c r="K64" t="n">
         <v>0</v>
@@ -5319,10 +5319,10 @@
         <v>0</v>
       </c>
       <c r="Q64" t="n">
-        <v>18.7</v>
+        <v>18</v>
       </c>
       <c r="R64" t="n">
-        <v>28.7</v>
+        <v>28</v>
       </c>
       <c r="S64" t="n">
         <v>0</v>
@@ -5331,7 +5331,7 @@
         <v>0</v>
       </c>
       <c r="U64" t="n">
-        <v>28.7</v>
+        <v>28</v>
       </c>
       <c r="V64" t="n">
         <v>0</v>
@@ -5395,7 +5395,7 @@
         <v>0</v>
       </c>
       <c r="Q65" t="n">
-        <v>29.5</v>
+        <v>29</v>
       </c>
       <c r="R65" t="n">
         <v>0</v>
@@ -5413,10 +5413,10 @@
         <v>0</v>
       </c>
       <c r="W65" t="n">
-        <v>0.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="X65" t="n">
-        <v>0.1000000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -5456,7 +5456,7 @@
         <v>0</v>
       </c>
       <c r="L66" t="n">
-        <v>6955.899999999994</v>
+        <v>6955</v>
       </c>
       <c r="M66" t="n">
         <v>0</v>
@@ -5474,7 +5474,7 @@
         <v>0</v>
       </c>
       <c r="R66" t="n">
-        <v>36.5</v>
+        <v>36</v>
       </c>
       <c r="S66" t="n">
         <v>0</v>
@@ -5489,10 +5489,10 @@
         <v>0</v>
       </c>
       <c r="W66" t="n">
-        <v>0.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="X66" t="n">
-        <v>0.1000000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -5532,7 +5532,7 @@
         <v>0</v>
       </c>
       <c r="L67" t="n">
-        <v>21156.89999999999</v>
+        <v>21156</v>
       </c>
       <c r="M67" t="n">
         <v>0</v>
@@ -5550,7 +5550,7 @@
         <v>0</v>
       </c>
       <c r="R67" t="n">
-        <v>26.5</v>
+        <v>26</v>
       </c>
       <c r="S67" t="n">
         <v>0</v>
@@ -5565,10 +5565,10 @@
         <v>0</v>
       </c>
       <c r="W67" t="n">
-        <v>0.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="X67" t="n">
-        <v>0.1000000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -5608,7 +5608,7 @@
         <v>0</v>
       </c>
       <c r="L68" t="n">
-        <v>47121.89999999999</v>
+        <v>47121</v>
       </c>
       <c r="M68" t="n">
         <v>0</v>
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="R68" t="n">
-        <v>26.5</v>
+        <v>26</v>
       </c>
       <c r="S68" t="n">
         <v>0</v>
@@ -5641,10 +5641,10 @@
         <v>0</v>
       </c>
       <c r="W68" t="n">
-        <v>0.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="X68" t="n">
-        <v>0.1000000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -5754,7 +5754,7 @@
         <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>60154.60000000001</v>
+        <v>60154</v>
       </c>
       <c r="K70" t="n">
         <v>0</v>
@@ -5775,10 +5775,10 @@
         <v>1</v>
       </c>
       <c r="Q70" t="n">
-        <v>28.7</v>
+        <v>28</v>
       </c>
       <c r="R70" t="n">
-        <v>8.700000000000003</v>
+        <v>8</v>
       </c>
       <c r="S70" t="n">
         <v>0</v>
@@ -5787,7 +5787,7 @@
         <v>2</v>
       </c>
       <c r="U70" t="n">
-        <v>8.700000000000003</v>
+        <v>8</v>
       </c>
       <c r="V70" t="n">
         <v>0</v>
@@ -5866,10 +5866,10 @@
         <v>0</v>
       </c>
       <c r="V71" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="W71" t="n">
-        <v>0.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="X71" t="n">
         <v>0</v>
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>18493.60000000001</v>
+        <v>18493</v>
       </c>
       <c r="K72" t="n">
         <v>0</v>
@@ -5927,10 +5927,10 @@
         <v>2</v>
       </c>
       <c r="Q72" t="n">
-        <v>38.7</v>
+        <v>38</v>
       </c>
       <c r="R72" t="n">
-        <v>38.7</v>
+        <v>38</v>
       </c>
       <c r="S72" t="n">
         <v>0</v>
@@ -5939,7 +5939,7 @@
         <v>1</v>
       </c>
       <c r="U72" t="n">
-        <v>18.7</v>
+        <v>18</v>
       </c>
       <c r="V72" t="n">
         <v>0</v>
@@ -5988,7 +5988,7 @@
         <v>0</v>
       </c>
       <c r="L73" t="n">
-        <v>-9169.100000000006</v>
+        <v>-9170</v>
       </c>
       <c r="M73" t="n">
         <v>0</v>
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="R73" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="S73" t="n">
         <v>0</v>
@@ -6021,10 +6021,10 @@
         <v>0</v>
       </c>
       <c r="W73" t="n">
-        <v>0.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="X73" t="n">
-        <v>0.1000000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -6094,10 +6094,10 @@
         <v>0</v>
       </c>
       <c r="V74" t="n">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="W74" t="n">
-        <v>0.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="X74" t="n">
         <v>0</v>
@@ -6134,7 +6134,7 @@
         <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>62635.60000000001</v>
+        <v>62635</v>
       </c>
       <c r="K75" t="n">
         <v>0</v>
@@ -6155,10 +6155,10 @@
         <v>0</v>
       </c>
       <c r="Q75" t="n">
-        <v>8.700000000000003</v>
+        <v>8</v>
       </c>
       <c r="R75" t="n">
-        <v>28.7</v>
+        <v>28</v>
       </c>
       <c r="S75" t="n">
         <v>0</v>
@@ -6167,7 +6167,7 @@
         <v>2</v>
       </c>
       <c r="U75" t="n">
-        <v>18.7</v>
+        <v>18</v>
       </c>
       <c r="V75" t="n">
         <v>0</v>
@@ -6210,7 +6210,7 @@
         <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>-3490.399999999994</v>
+        <v>-3491</v>
       </c>
       <c r="K76" t="n">
         <v>0</v>
@@ -6231,10 +6231,10 @@
         <v>0</v>
       </c>
       <c r="Q76" t="n">
-        <v>18.7</v>
+        <v>18</v>
       </c>
       <c r="R76" t="n">
-        <v>18.7</v>
+        <v>18</v>
       </c>
       <c r="S76" t="n">
         <v>0</v>
@@ -6243,7 +6243,7 @@
         <v>1</v>
       </c>
       <c r="U76" t="n">
-        <v>18.7</v>
+        <v>18</v>
       </c>
       <c r="V76" t="n">
         <v>0</v>
@@ -6283,7 +6283,7 @@
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>66230.20000000001</v>
+        <v>66230</v>
       </c>
       <c r="J77" t="n">
         <v>0</v>
@@ -6298,7 +6298,7 @@
         <v>0</v>
       </c>
       <c r="N77" t="n">
-        <v>40458.20000000001</v>
+        <v>40458</v>
       </c>
       <c r="O77" t="n">
         <v>0</v>
@@ -6307,7 +6307,7 @@
         <v>0</v>
       </c>
       <c r="Q77" t="n">
-        <v>18.7</v>
+        <v>18</v>
       </c>
       <c r="R77" t="n">
         <v>0</v>
@@ -6368,7 +6368,7 @@
         <v>0</v>
       </c>
       <c r="L78" t="n">
-        <v>14961.89999999999</v>
+        <v>14961</v>
       </c>
       <c r="M78" t="n">
         <v>0</v>
@@ -6386,7 +6386,7 @@
         <v>0</v>
       </c>
       <c r="R78" t="n">
-        <v>26.5</v>
+        <v>26</v>
       </c>
       <c r="S78" t="n">
         <v>0</v>
@@ -6401,10 +6401,10 @@
         <v>0</v>
       </c>
       <c r="W78" t="n">
-        <v>0.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="X78" t="n">
-        <v>0.1000000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -6444,7 +6444,7 @@
         <v>0</v>
       </c>
       <c r="L79" t="n">
-        <v>36085.89999999999</v>
+        <v>36085</v>
       </c>
       <c r="M79" t="n">
         <v>0</v>
@@ -6462,7 +6462,7 @@
         <v>0</v>
       </c>
       <c r="R79" t="n">
-        <v>26.5</v>
+        <v>26</v>
       </c>
       <c r="S79" t="n">
         <v>0</v>
@@ -6471,16 +6471,16 @@
         <v>0</v>
       </c>
       <c r="U79" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="V79" t="n">
         <v>0</v>
       </c>
       <c r="W79" t="n">
-        <v>0.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="X79" t="n">
-        <v>0.1000000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -6520,7 +6520,7 @@
         <v>0</v>
       </c>
       <c r="L80" t="n">
-        <v>20181.89999999999</v>
+        <v>20181</v>
       </c>
       <c r="M80" t="n">
         <v>0</v>
@@ -6538,7 +6538,7 @@
         <v>0</v>
       </c>
       <c r="R80" t="n">
-        <v>36.5</v>
+        <v>36</v>
       </c>
       <c r="S80" t="n">
         <v>0</v>
@@ -6553,10 +6553,10 @@
         <v>0</v>
       </c>
       <c r="W80" t="n">
-        <v>0.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="X80" t="n">
-        <v>0.1000000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -6596,7 +6596,7 @@
         <v>0</v>
       </c>
       <c r="L81" t="n">
-        <v>-1212.100000000006</v>
+        <v>-1213</v>
       </c>
       <c r="M81" t="n">
         <v>0</v>
@@ -6614,7 +6614,7 @@
         <v>0</v>
       </c>
       <c r="R81" t="n">
-        <v>26.5</v>
+        <v>26</v>
       </c>
       <c r="S81" t="n">
         <v>0</v>
@@ -6629,10 +6629,10 @@
         <v>0</v>
       </c>
       <c r="W81" t="n">
-        <v>0.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="X81" t="n">
-        <v>0.1000000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -6663,7 +6663,7 @@
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>82181.20000000001</v>
+        <v>82181</v>
       </c>
       <c r="J82" t="n">
         <v>0</v>
@@ -6678,7 +6678,7 @@
         <v>0</v>
       </c>
       <c r="N82" t="n">
-        <v>82181.20000000001</v>
+        <v>82181</v>
       </c>
       <c r="O82" t="n">
         <v>0</v>
@@ -6687,7 +6687,7 @@
         <v>0</v>
       </c>
       <c r="Q82" t="n">
-        <v>18.7</v>
+        <v>18</v>
       </c>
       <c r="R82" t="n">
         <v>0</v>
@@ -6748,7 +6748,7 @@
         <v>0</v>
       </c>
       <c r="L83" t="n">
-        <v>20814.89999999999</v>
+        <v>20814</v>
       </c>
       <c r="M83" t="n">
         <v>0</v>
@@ -6766,7 +6766,7 @@
         <v>0</v>
       </c>
       <c r="R83" t="n">
-        <v>36.5</v>
+        <v>36</v>
       </c>
       <c r="S83" t="n">
         <v>0</v>
@@ -6775,16 +6775,16 @@
         <v>0</v>
       </c>
       <c r="U83" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="V83" t="n">
         <v>0</v>
       </c>
       <c r="W83" t="n">
-        <v>0.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="X83" t="n">
-        <v>0.1000000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -6824,7 +6824,7 @@
         <v>0</v>
       </c>
       <c r="L84" t="n">
-        <v>52938.89999999999</v>
+        <v>52938</v>
       </c>
       <c r="M84" t="n">
         <v>0</v>
@@ -6842,7 +6842,7 @@
         <v>0</v>
       </c>
       <c r="R84" t="n">
-        <v>26.5</v>
+        <v>26</v>
       </c>
       <c r="S84" t="n">
         <v>0</v>
@@ -6857,10 +6857,10 @@
         <v>0</v>
       </c>
       <c r="W84" t="n">
-        <v>0.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="X84" t="n">
-        <v>0.1000000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -6900,7 +6900,7 @@
         <v>0</v>
       </c>
       <c r="L85" t="n">
-        <v>45472.89999999999</v>
+        <v>45472</v>
       </c>
       <c r="M85" t="n">
         <v>0</v>
@@ -6918,7 +6918,7 @@
         <v>0</v>
       </c>
       <c r="R85" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="S85" t="n">
         <v>0</v>
@@ -6933,10 +6933,10 @@
         <v>0</v>
       </c>
       <c r="W85" t="n">
-        <v>0.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="X85" t="n">
-        <v>0.1000000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -6976,7 +6976,7 @@
         <v>0</v>
       </c>
       <c r="L86" t="n">
-        <v>29093.89999999999</v>
+        <v>29093</v>
       </c>
       <c r="M86" t="n">
         <v>0</v>
@@ -6994,7 +6994,7 @@
         <v>0</v>
       </c>
       <c r="R86" t="n">
-        <v>26.5</v>
+        <v>26</v>
       </c>
       <c r="S86" t="n">
         <v>0</v>
@@ -7009,10 +7009,10 @@
         <v>0</v>
       </c>
       <c r="W86" t="n">
-        <v>0.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="X86" t="n">
-        <v>0.1000000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -7046,7 +7046,7 @@
         <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>19379.60000000001</v>
+        <v>19379</v>
       </c>
       <c r="K87" t="n">
         <v>0</v>
@@ -7067,10 +7067,10 @@
         <v>1</v>
       </c>
       <c r="Q87" t="n">
-        <v>28.7</v>
+        <v>28</v>
       </c>
       <c r="R87" t="n">
-        <v>8.700000000000003</v>
+        <v>8</v>
       </c>
       <c r="S87" t="n">
         <v>0</v>
@@ -7079,7 +7079,7 @@
         <v>0</v>
       </c>
       <c r="U87" t="n">
-        <v>28.7</v>
+        <v>28</v>
       </c>
       <c r="V87" t="n">
         <v>0</v>
@@ -7122,7 +7122,7 @@
         <v>0</v>
       </c>
       <c r="J88" t="n">
-        <v>61311.60000000001</v>
+        <v>61311</v>
       </c>
       <c r="K88" t="n">
         <v>0</v>
@@ -7143,10 +7143,10 @@
         <v>2</v>
       </c>
       <c r="Q88" t="n">
-        <v>18.7</v>
+        <v>18</v>
       </c>
       <c r="R88" t="n">
-        <v>28.7</v>
+        <v>28</v>
       </c>
       <c r="S88" t="n">
         <v>1</v>
@@ -7155,7 +7155,7 @@
         <v>2</v>
       </c>
       <c r="U88" t="n">
-        <v>28.7</v>
+        <v>28</v>
       </c>
       <c r="V88" t="n">
         <v>0</v>
@@ -7204,7 +7204,7 @@
         <v>0</v>
       </c>
       <c r="L89" t="n">
-        <v>37277.89999999999</v>
+        <v>37277</v>
       </c>
       <c r="M89" t="n">
         <v>0</v>
@@ -7222,7 +7222,7 @@
         <v>0</v>
       </c>
       <c r="R89" t="n">
-        <v>26.5</v>
+        <v>26</v>
       </c>
       <c r="S89" t="n">
         <v>0</v>
@@ -7237,10 +7237,10 @@
         <v>0</v>
       </c>
       <c r="W89" t="n">
-        <v>0.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="X89" t="n">
-        <v>0.1000000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -7274,7 +7274,7 @@
         <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>10523.60000000001</v>
+        <v>10523</v>
       </c>
       <c r="K90" t="n">
         <v>0</v>
@@ -7295,10 +7295,10 @@
         <v>0</v>
       </c>
       <c r="Q90" t="n">
-        <v>18.7</v>
+        <v>18</v>
       </c>
       <c r="R90" t="n">
-        <v>28.7</v>
+        <v>28</v>
       </c>
       <c r="S90" t="n">
         <v>0</v>
@@ -7307,7 +7307,7 @@
         <v>1</v>
       </c>
       <c r="U90" t="n">
-        <v>8.700000000000003</v>
+        <v>8</v>
       </c>
       <c r="V90" t="n">
         <v>0</v>
@@ -7356,7 +7356,7 @@
         <v>0</v>
       </c>
       <c r="L91" t="n">
-        <v>28050.89999999999</v>
+        <v>28050</v>
       </c>
       <c r="M91" t="n">
         <v>0</v>
@@ -7374,7 +7374,7 @@
         <v>0</v>
       </c>
       <c r="R91" t="n">
-        <v>36.5</v>
+        <v>36</v>
       </c>
       <c r="S91" t="n">
         <v>0</v>
@@ -7383,16 +7383,16 @@
         <v>0</v>
       </c>
       <c r="U91" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="V91" t="n">
         <v>0</v>
       </c>
       <c r="W91" t="n">
-        <v>0.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="X91" t="n">
-        <v>0.1000000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -7432,7 +7432,7 @@
         <v>0</v>
       </c>
       <c r="L92" t="n">
-        <v>38588.89999999999</v>
+        <v>38588</v>
       </c>
       <c r="M92" t="n">
         <v>0</v>
@@ -7450,7 +7450,7 @@
         <v>0</v>
       </c>
       <c r="R92" t="n">
-        <v>26.5</v>
+        <v>26</v>
       </c>
       <c r="S92" t="n">
         <v>0</v>
@@ -7465,10 +7465,10 @@
         <v>0</v>
       </c>
       <c r="W92" t="n">
-        <v>0.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="X92" t="n">
-        <v>0.1000000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -7508,7 +7508,7 @@
         <v>0</v>
       </c>
       <c r="L93" t="n">
-        <v>20811.89999999999</v>
+        <v>20811</v>
       </c>
       <c r="M93" t="n">
         <v>0</v>
@@ -7526,7 +7526,7 @@
         <v>0</v>
       </c>
       <c r="R93" t="n">
-        <v>26.5</v>
+        <v>26</v>
       </c>
       <c r="S93" t="n">
         <v>0</v>
@@ -7541,10 +7541,10 @@
         <v>0</v>
       </c>
       <c r="W93" t="n">
-        <v>0.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="X93" t="n">
-        <v>0.1000000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -7578,7 +7578,7 @@
         <v>0</v>
       </c>
       <c r="J94" t="n">
-        <v>56972.60000000001</v>
+        <v>56972</v>
       </c>
       <c r="K94" t="n">
         <v>0</v>
@@ -7599,10 +7599,10 @@
         <v>0</v>
       </c>
       <c r="Q94" t="n">
-        <v>18.7</v>
+        <v>18</v>
       </c>
       <c r="R94" t="n">
-        <v>18.7</v>
+        <v>18</v>
       </c>
       <c r="S94" t="n">
         <v>2</v>
@@ -7611,7 +7611,7 @@
         <v>1</v>
       </c>
       <c r="U94" t="n">
-        <v>18.7</v>
+        <v>18</v>
       </c>
       <c r="V94" t="n">
         <v>0</v>
@@ -7654,7 +7654,7 @@
         <v>0</v>
       </c>
       <c r="J95" t="n">
-        <v>-3521.399999999994</v>
+        <v>-3522</v>
       </c>
       <c r="K95" t="n">
         <v>0</v>
@@ -7675,10 +7675,10 @@
         <v>2</v>
       </c>
       <c r="Q95" t="n">
-        <v>18.7</v>
+        <v>18</v>
       </c>
       <c r="R95" t="n">
-        <v>28.7</v>
+        <v>28</v>
       </c>
       <c r="S95" t="n">
         <v>0</v>
@@ -7687,7 +7687,7 @@
         <v>3</v>
       </c>
       <c r="U95" t="n">
-        <v>28.7</v>
+        <v>28</v>
       </c>
       <c r="V95" t="n">
         <v>0</v>
@@ -7730,7 +7730,7 @@
         <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>56844.60000000001</v>
+        <v>56844</v>
       </c>
       <c r="K96" t="n">
         <v>0</v>
@@ -7751,10 +7751,10 @@
         <v>2</v>
       </c>
       <c r="Q96" t="n">
-        <v>28.7</v>
+        <v>28</v>
       </c>
       <c r="R96" t="n">
-        <v>18.7</v>
+        <v>18</v>
       </c>
       <c r="S96" t="n">
         <v>0</v>
@@ -7763,7 +7763,7 @@
         <v>3</v>
       </c>
       <c r="U96" t="n">
-        <v>18.7</v>
+        <v>18</v>
       </c>
       <c r="V96" t="n">
         <v>0</v>
@@ -7803,13 +7803,13 @@
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>4640.799999999988</v>
+        <v>4640</v>
       </c>
       <c r="J97" t="n">
         <v>0</v>
       </c>
       <c r="K97" t="n">
-        <v>4640.799999999988</v>
+        <v>4640</v>
       </c>
       <c r="L97" t="n">
         <v>0</v>
@@ -7842,13 +7842,13 @@
         <v>0</v>
       </c>
       <c r="V97" t="n">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="W97" t="n">
         <v>0</v>
       </c>
       <c r="X97" t="n">
-        <v>0.1000000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -7888,7 +7888,7 @@
         <v>0</v>
       </c>
       <c r="L98" t="n">
-        <v>8802.899999999994</v>
+        <v>8802</v>
       </c>
       <c r="M98" t="n">
         <v>0</v>
@@ -7906,7 +7906,7 @@
         <v>0</v>
       </c>
       <c r="R98" t="n">
-        <v>26.5</v>
+        <v>26</v>
       </c>
       <c r="S98" t="n">
         <v>0</v>
@@ -7921,10 +7921,10 @@
         <v>0</v>
       </c>
       <c r="W98" t="n">
-        <v>0.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="X98" t="n">
-        <v>0.1000000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -7958,7 +7958,7 @@
         <v>0</v>
       </c>
       <c r="J99" t="n">
-        <v>35163.60000000001</v>
+        <v>35163</v>
       </c>
       <c r="K99" t="n">
         <v>0</v>
@@ -7979,10 +7979,10 @@
         <v>0</v>
       </c>
       <c r="Q99" t="n">
-        <v>8.700000000000003</v>
+        <v>8</v>
       </c>
       <c r="R99" t="n">
-        <v>18.7</v>
+        <v>18</v>
       </c>
       <c r="S99" t="n">
         <v>0</v>
@@ -7991,7 +7991,7 @@
         <v>0</v>
       </c>
       <c r="U99" t="n">
-        <v>18.7</v>
+        <v>18</v>
       </c>
       <c r="V99" t="n">
         <v>0</v>
